--- a/EmployeeEvaluation/wymagania.xlsx
+++ b/EmployeeEvaluation/wymagania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasia\source\repos\EmployeeEvaluation\EmployeeEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43113EC-B870-428B-B50D-9B2E063147A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B1C274E-D481-48CB-9EFF-07001E058C72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="4470" xr2:uid="{D8FEEE1D-5F36-46FD-B12A-18AC8B9B6322}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Rejestracja</t>
   </si>
@@ -236,6 +235,9 @@
   </si>
   <si>
     <t>BRAK MOŻLIWOŚCI EDYCJI</t>
+  </si>
+  <si>
+    <t>Dopisać uprawnienia</t>
   </si>
 </sst>
 </file>
@@ -681,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF77A2-4105-42FD-BB4E-6BE352B1AFBE}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +892,7 @@
       </c>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
@@ -898,27 +900,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -929,7 +934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>43</v>
       </c>
@@ -937,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -948,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>2</v>
       </c>
@@ -956,7 +961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>46</v>
       </c>
@@ -964,31 +969,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>49</v>
       </c>

--- a/EmployeeEvaluation/wymagania.xlsx
+++ b/EmployeeEvaluation/wymagania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasia\source\repos\EmployeeEvaluation\EmployeeEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B1C274E-D481-48CB-9EFF-07001E058C72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D91FB80-DFF6-4937-82A3-FCEF2907B2DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="4470" xr2:uid="{D8FEEE1D-5F36-46FD-B12A-18AC8B9B6322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>Rejestracja</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Dopisać uprawnienia</t>
+  </si>
+  <si>
+    <t>Edycja ankiety</t>
+  </si>
+  <si>
+    <t>Utwórz</t>
+  </si>
+  <si>
+    <t>Utworzenie ankiety</t>
   </si>
 </sst>
 </file>
@@ -681,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF77A2-4105-42FD-BB4E-6BE352B1AFBE}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1115,19 @@
         <v>69</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:B7"/>
